--- a/tables/1979/1979_Table3.xlsx
+++ b/tables/1979/1979_Table3.xlsx
@@ -21,7 +21,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+  <si>
+    <t xml:space="preserve">Clones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fresh yield(t/ha)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dry matter(%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dry yield(t/ha)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMD Score</t>
+  </si>
   <si>
     <t xml:space="preserve">TMS 50395</t>
   </si>
@@ -77,7 +92,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -183,13 +197,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="2" width="13.57"/>
@@ -198,234 +212,252 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="13.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="n">
-        <v>58.5</v>
-      </c>
-      <c r="C1" s="4" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="D1" s="4" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="E1" s="4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="F1" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="5" t="n">
-        <v>41</v>
+        <v>5</v>
+      </c>
+      <c r="B2" s="4" t="n">
+        <v>58.5</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>26.7</v>
+        <v>27.5</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>10.9</v>
+        <v>16.1</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="F2" s="5" t="n">
-        <v>2</v>
+        <v>2.3</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>1.4</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="4" t="n">
-        <v>36.5</v>
+        <v>7</v>
+      </c>
+      <c r="B3" s="5" t="n">
+        <v>41</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>22.6</v>
+        <v>26.7</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>8.2</v>
+        <v>10.9</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>1.5</v>
+        <v>3.3</v>
+      </c>
+      <c r="F3" s="5" t="n">
+        <v>2</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>32.6</v>
+        <v>36.5</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>27.4</v>
+        <v>22.6</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="E4" s="5" t="n">
-        <v>3</v>
+        <v>8.2</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>2.5</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="B5" s="4" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="C5" s="4" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6" s="4" t="n">
         <v>31.8</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>23.5</v>
+        <v>24.4</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="F6" s="4" t="n">
         <v>1.5</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="C7" s="5" t="n">
-        <v>27</v>
+        <v>31.8</v>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>23.5</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>8.3</v>
+        <v>7.5</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="F7" s="4" t="n">
         <v>1.5</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>27.4</v>
+        <v>30.6</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>27</v>
       </c>
       <c r="D8" s="4" t="n">
         <v>8.3</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="F8" s="4" t="n">
         <v>1.5</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>28.3</v>
+        <v>30.2</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>31.1</v>
+        <v>27.4</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>8.8</v>
+        <v>8.3</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="F9" s="4" t="n">
         <v>1.5</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="n">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="4" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="C10" s="4" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>8.8</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="n">
         <v>60444</v>
       </c>
-      <c r="B10" s="4" t="n">
+      <c r="B11" s="4" t="n">
         <v>9.4</v>
       </c>
-      <c r="C10" s="4" t="n">
+      <c r="C11" s="4" t="n">
         <v>21.8</v>
       </c>
-      <c r="D10" s="5" t="n">
+      <c r="D11" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="E10" s="4" t="n">
+      <c r="E11" s="4" t="n">
         <v>2.9</v>
       </c>
-      <c r="F10" s="4" t="n">
+      <c r="F11" s="4" t="n">
         <v>3.3</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>1</v>
+      <c r="G11" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -450,19 +482,19 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="13.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
